--- a/dados/rede autopartsonline.xlsx
+++ b/dados/rede autopartsonline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,35 +436,45 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>loja</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>nome</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>modelo</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>preco</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>politica</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>full</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -473,1256 +483,1346 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>rede autopartsonline</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Controle Remoto Jfa Redline Wr Longo Alcance De Longa Distan</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>CONTROLE WR</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>77.67</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="E2" t="n">
+        <v>99</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:703278970#searchVariation=MLB28557249&amp;position=4&amp;search_layout=grid&amp;type=product&amp;tracking_id=86cb5eca-7c31-4bca-af17-775cf2fd40a2</t>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:703278970#searchVariation=MLB28557249&amp;position=4&amp;search_layout=grid&amp;type=product&amp;tracking_id=11020d93-52a5-4a04-b760-5c0659a445fc</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>499.46</v>
+          <t>rede autopartsonline</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>634.4</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:703278970#searchVariation=MLB22144397&amp;position=7&amp;search_layout=grid&amp;type=product&amp;tracking_id=86cb5eca-7c31-4bca-af17-775cf2fd40a2</t>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:703278970#searchVariation=MLB21392652&amp;position=8&amp;search_layout=grid&amp;type=product&amp;tracking_id=11020d93-52a5-4a04-b760-5c0659a445fc</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ACQUA</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>83.63</v>
+          <t>rede autopartsonline</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>422.93</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:703278970#searchVariation=MLB27685629&amp;position=24&amp;search_layout=grid&amp;type=product&amp;tracking_id=86cb5eca-7c31-4bca-af17-775cf2fd40a2</t>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:703278970#searchVariation=MLB21562641&amp;position=9&amp;search_layout=grid&amp;type=product&amp;tracking_id=11020d93-52a5-4a04-b760-5c0659a445fc</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>845.87</v>
+          <t>rede autopartsonline</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>499.46</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:703278970#searchVariation=MLB21348561&amp;position=41&amp;search_layout=grid&amp;type=product&amp;tracking_id=86cb5eca-7c31-4bca-af17-775cf2fd40a2</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:703278970#searchVariation=MLB22144397&amp;position=15&amp;search_layout=grid&amp;type=product&amp;tracking_id=11020d93-52a5-4a04-b760-5c0659a445fc</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>624.33</v>
+          <t>rede autopartsonline</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>ACQUA</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>75.26000000000001</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:703278970#searchVariation=MLB24834408&amp;position=42&amp;search_layout=grid&amp;type=product&amp;tracking_id=86cb5eca-7c31-4bca-af17-775cf2fd40a2</t>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:703278970#searchVariation=MLB27685629&amp;position=19&amp;search_layout=grid&amp;type=product&amp;tracking_id=11020d93-52a5-4a04-b760-5c0659a445fc</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>422.93</v>
+          <t>rede autopartsonline</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>ACQUA</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>77.77</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:703278970#searchVariation=MLB21562641&amp;position=44&amp;search_layout=grid&amp;type=product&amp;tracking_id=86cb5eca-7c31-4bca-af17-775cf2fd40a2</t>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:703278970#searchVariation=MLB27687422&amp;position=22&amp;search_layout=grid&amp;type=product&amp;tracking_id=11020d93-52a5-4a04-b760-5c0659a445fc</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>634.4</v>
+          <t>rede autopartsonline</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>845.87</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:703278970#searchVariation=MLB21392652&amp;position=10&amp;search_layout=grid&amp;type=product&amp;tracking_id=e5dbc193-8522-4c57-82d4-e3b989116158</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:703278970#searchVariation=MLB21348561&amp;position=30&amp;search_layout=grid&amp;type=product&amp;tracking_id=11020d93-52a5-4a04-b760-5c0659a445fc</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>716.71</v>
+          <t>rede autopartsonline</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>624.33</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:703278970#searchVariation=MLB24154371&amp;position=34&amp;search_layout=grid&amp;type=product&amp;tracking_id=e5dbc193-8522-4c57-82d4-e3b989116158</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:703278970#searchVariation=MLB24834408&amp;position=42&amp;search_layout=grid&amp;type=product&amp;tracking_id=11020d93-52a5-4a04-b760-5c0659a445fc</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>364.95</v>
+          <t>rede autopartsonline</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>716.71</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:703278970#searchVariation=MLB23456525&amp;position=46&amp;search_layout=grid&amp;type=product&amp;tracking_id=e5dbc193-8522-4c57-82d4-e3b989116158</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:703278970#searchVariation=MLB24154371&amp;position=19&amp;search_layout=grid&amp;type=product&amp;tracking_id=08e4a5db-5211-457d-a219-770d817d5e59</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>rede autopartsonline</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>FONTE 70A STORM</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="E11" t="n">
         <v>493.42</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:703278970#searchVariation=MLB21455208&amp;position=48&amp;search_layout=grid&amp;type=product&amp;tracking_id=e5dbc193-8522-4c57-82d4-e3b989116158</t>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:703278970#searchVariation=MLB21455208&amp;position=45&amp;search_layout=grid&amp;type=product&amp;tracking_id=08e4a5db-5211-457d-a219-770d817d5e59</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>rede autopartsonline</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>Modulo Amplificador Jfa Ap 400x4 400w Rms 4 Canais Potência Cor Preto</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>FONTE 40A STORM</t>
         </is>
       </c>
-      <c r="C12" t="n">
-        <v>425</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="E12" t="n">
+        <v>382.5</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/modulo-amplificador-jfa-ap-400x4-400w-rms-4-canais-potncia-cor-preto/p/MLB36972018?pdp_filters=seller_id:703278970#searchVariation=MLB36972018&amp;position=13&amp;search_layout=grid&amp;type=product&amp;tracking_id=bbdcde21-f163-41dc-b9e5-1f3f15bcfb51</t>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/modulo-amplificador-jfa-ap-400x4-400w-rms-4-canais-potncia-cor-preto/p/MLB36972018?pdp_filters=seller_id:703278970#searchVariation=MLB36972018&amp;position=13&amp;search_layout=grid&amp;type=product&amp;tracking_id=7ffd37e7-14e1-4274-a352-c2596337f2b5</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>rede autopartsonline</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>Fonte Carregador Automotivo Jfa 70a Storm Lite 12v Bivolt</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>FONTE 70A LITE</t>
         </is>
       </c>
-      <c r="C13" t="n">
+      <c r="E13" t="n">
         <v>434.42</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3399448001-fonte-carregador-automotivo-jfa-70a-storm-lite-12v-bivolt-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8c16e289-4598-4229-85cf-ad2b467883d9</t>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3399448001-fonte-carregador-automotivo-jfa-70a-storm-lite-12v-bivolt-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7d1dd6f0-26ff-44bd-990b-910eb331775d</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>rede autopartsonline</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>Fonte Carregador Automotiva 200a Jfa Storm Bivolt Automático</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>FONTE 200A STORM</t>
         </is>
       </c>
-      <c r="C14" t="n">
+      <c r="E14" t="n">
         <v>845.87</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2608382859-fonte-carregador-automotiva-200a-jfa-storm-bivolt-automatico-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8c16e289-4598-4229-85cf-ad2b467883d9</t>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2608382859-fonte-carregador-automotiva-200a-jfa-storm-bivolt-automatico-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7d1dd6f0-26ff-44bd-990b-910eb331775d</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Bob Bivolt Automático</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>rede autopartsonline</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 120a Bob Storm Bivolt Novo</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>FONTE 120 BOB</t>
         </is>
       </c>
-      <c r="C15" t="n">
-        <v>499.46</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="E15" t="n">
+        <v>539.74</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3775563782-fonte-carregador-automotivo-jfa-120a-bob-bivolt-automatico-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da42c53c4-7fab-478d-9578-0b0d19fc2c36</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3821403076-fonte-carregador-automotivo-jfa-120a-bob-storm-bivolt-novo-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dae7fe5dc-2d32-45a5-bde0-ea659cfbdabd</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 90a Bob Storm Slim Bivolt 110v 220v</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>443.07</v>
+          <t>rede autopartsonline</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotiva 70a Jfa Storm Bivolt Automático</t>
+        </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>523.63</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3776704626-fonte-carregador-jfa-90a-bob-storm-slim-bivolt-110v-220v-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da42c53c4-7fab-478d-9578-0b0d19fc2c36</t>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3775336280-fonte-carregador-automotiva-70a-jfa-storm-bivolt-automatico-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dae7fe5dc-2d32-45a5-bde0-ea659cfbdabd</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite 12v Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>716.71</v>
+          <t>rede autopartsonline</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 70a Storm Bivolt Sci Cca Nova</t>
+        </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>523.63</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3400352285-fonte-carregador-automotivo-jfa-200a-storm-lite-12v-bivolt-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D384d6135-6728-49fe-b44b-a2cf941f793c</t>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3368838621-fonte-carregador-jfa-70a-storm-bivolt-sci-cca-nova-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dae7fe5dc-2d32-45a5-bde0-ea659cfbdabd</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>rede autopartsonline</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>Fonte Carregador Jfa 120a Bivolt Storm Com Medidor Cca Fonte</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>FONTE 120A STORM</t>
         </is>
       </c>
-      <c r="C18" t="n">
+      <c r="E18" t="n">
         <v>674.6799999999999</v>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3368873273-fonte-carregador-jfa-120a-bivolt-storm-com-medidor-cca-fonte-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D384d6135-6728-49fe-b44b-a2cf941f793c</t>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3368873273-fonte-carregador-jfa-120a-bivolt-storm-com-medidor-cca-fonte-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8d7720af-da48-4dc2-994e-729a6fd47ff1</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Bob Storm Bivolt Novo</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>539.74</v>
+          <t>rede autopartsonline</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 90a Para Caixa Som Bob Bivolt Slim</t>
+        </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>422.93</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3821403076-fonte-carregador-automotivo-jfa-120a-bob-storm-bivolt-novo-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D384d6135-6728-49fe-b44b-a2cf941f793c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3776743806-fonte-carregador-jfa-90a-para-caixa-som-bob-bivolt-slim-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8d7720af-da48-4dc2-994e-729a6fd47ff1</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva 70a Jfa Storm Bivolt Automático</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>523.63</v>
+          <t>rede autopartsonline</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotiva 120a Jfa Storm Bivolt Automático</t>
+        </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>634.4</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3775336280-fonte-carregador-automotiva-70a-jfa-storm-bivolt-automatico-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D384d6135-6728-49fe-b44b-a2cf941f793c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3368910857-fonte-carregador-automotiva-120a-jfa-storm-bivolt-automatico-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db1be93d5-c01e-4e2d-9903-b26e0ef335b8</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Storm Bivolt Sci Cca Nova</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>rede autopartsonline</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm 70a Bivolt Carregador Fonte</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>FONTE 70A STORM</t>
         </is>
       </c>
-      <c r="C21" t="n">
-        <v>523.63</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="E21" t="n">
+        <v>493.42</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3368838621-fonte-carregador-jfa-70a-storm-bivolt-sci-cca-nova-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D384d6135-6728-49fe-b44b-a2cf941f793c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3368849175-fonte-automotiva-jfa-storm-70a-bivolt-carregador-fonte-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db1be93d5-c01e-4e2d-9903-b26e0ef335b8</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Fonte Carregador De Bateria Jfa 70a Lite Storm Slim Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>434.42</v>
+          <t>rede autopartsonline</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+        </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>805.59</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3399448181-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7b484657-8761-4b54-a338-e707e252e484</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3693369849-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D196537e6-1bdc-4184-87f9-0ba0177fb4c5</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 90a Para Caixa Som Bob Bivolt Slim</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>422.93</v>
+          <t>rede autopartsonline</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Fonte Carregador De Bateria Jfa 70a Lite Storm Slim Bivolt</t>
+        </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>434.42</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3776743806-fonte-carregador-jfa-90a-para-caixa-som-bob-bivolt-slim-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7b484657-8761-4b54-a338-e707e252e484</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3399448181-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5eea06e2-624c-4432-b2dc-7c2a06bce13b</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 70a Storm Lite 12v Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>408.73</v>
+          <t>rede autopartsonline</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Módulo Amplificador Jfa 380x4 Crossover Integrado 4 Canais</t>
+        </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>404.1</v>
+      </c>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3399486661-fonte-carregador-automotivo-jfa-70a-storm-lite-12v-bivolt-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db245c2a6-0bb9-4df1-bf3f-3fad87d4dc7c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3683446891-modulo-amplificador-jfa-380x4-crossover-integrado-4-canais-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5eea06e2-624c-4432-b2dc-7c2a06bce13b</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 60a Bivolt Carregador</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>364.95</v>
+          <t>rede autopartsonline</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Storm Lite 120a Bivolt Automático Slim</t>
+        </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>536.26</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3399519389-fonte-automotiva-jfa-storm-lite-60a-bivolt-carregador-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db245c2a6-0bb9-4df1-bf3f-3fad87d4dc7c</t>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3399540367-fonte-carregador-jfa-storm-lite-120a-bivolt-automatico-slim-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5eea06e2-624c-4432-b2dc-7c2a06bce13b</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm Lite 120a Bivolt Automático Slim</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>536.26</v>
+          <t>rede autopartsonline</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite 12v Bivolt</t>
+        </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>716.71</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3399540367-fonte-carregador-jfa-storm-lite-120a-bivolt-automatico-slim-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db245c2a6-0bb9-4df1-bf3f-3fad87d4dc7c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3400352285-fonte-carregador-automotivo-jfa-200a-storm-lite-12v-bivolt-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2037046c-f31b-44db-8903-630a3fb3a2e9</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva 120a Jfa Storm Bivolt Automático</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>634.4</v>
+          <t>rede autopartsonline</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 90a Bob Storm Slim Bivolt 110v 220v</t>
+        </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>443.07</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3368910857-fonte-carregador-automotiva-120a-jfa-storm-bivolt-automatico-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D95e2e560-c84a-4fa6-b009-09a491967e18</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3776704626-fonte-carregador-jfa-90a-bob-storm-slim-bivolt-110v-220v-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2037046c-f31b-44db-8903-630a3fb3a2e9</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 70a Bivolt Carregador Fonte</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>493.42</v>
+          <t>rede autopartsonline</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 70a Storm Lite 12v Bivolt</t>
+        </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>408.73</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3368849175-fonte-automotiva-jfa-storm-70a-bivolt-carregador-fonte-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D91f09e90-9eb8-4caf-b75c-c9189434c58b</t>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3399486661-fonte-carregador-automotivo-jfa-70a-storm-lite-12v-bivolt-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D76717b0a-c2bc-4f85-87e7-f7680bc5a6d4</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>805.59</v>
+          <t>rede autopartsonline</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Fonte 70a Caixa Trio Jfa 70 Ah Storm Lite 110/220v Bivolt</t>
+        </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>408.73</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3693369849-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D91f09e90-9eb8-4caf-b75c-c9189434c58b</t>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3399535315-fonte-70a-caixa-trio-jfa-70-ah-storm-lite-110220v-bivolt-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D76717b0a-c2bc-4f85-87e7-f7680bc5a6d4</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Fonte Carregador De Bateria Jfa 60a Lite Storm Slim Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>390.43</v>
+          <t>rede autopartsonline</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Fonte 70a Caixa Trio Jfa 70 Ah Storm Lite 110/220v Bivolt</t>
+        </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>471.86</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3399533199-fonte-carregador-de-bateria-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D992989b4-2692-4a12-97cd-43656ecc895a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3870258558-fonte-70a-caixa-trio-jfa-70-ah-storm-lite-110220v-bivolt-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D76717b0a-c2bc-4f85-87e7-f7680bc5a6d4</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Fonte 70a Caixa Trio Jfa 70 Ah Storm Lite 110/220v Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>434.42</v>
+          <t>rede autopartsonline</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Fonte Carregador De Bateria Jfa 120a Lite Storm Slim Bivolt</t>
+        </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>573.36</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3399535315-fonte-70a-caixa-trio-jfa-70-ah-storm-lite-110220v-bivolt-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df007ed95-5d42-4cf8-a0ac-a4b76957f2f7</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Fonte 70a Caixa Trio Jfa 70 Ah Storm Lite 110/220v Bivolt</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>FONTE 70A LITE</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>471.86</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3870258558-fonte-70a-caixa-trio-jfa-70-ah-storm-lite-110220v-bivolt-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5b1d0cf4-976d-4a3d-8e12-33d579ea2a51</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Módulo Amplificador Jfa 380x4 Crossover Integrado 4 Canais</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>449</v>
-      </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3683446891-modulo-amplificador-jfa-380x4-crossover-integrado-4-canais-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5b1d0cf4-976d-4a3d-8e12-33d579ea2a51</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Fonte Carregador Automotivo Jfa 60a Storm Lite 12v Bivolt</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>FONTE 60A LITE</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>364.95</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3399141435-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8a10a050-2256-4904-9337-88bbb6f47c2a</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Fonte Carregador De Bateria Jfa 120a Lite Storm Slim Bivolt</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>FONTE 120A LITE</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>573.36</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3399539805-fonte-carregador-de-bateria-jfa-120a-lite-storm-slim-bivolt-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8a10a050-2256-4904-9337-88bbb6f47c2a</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>ACQUA</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>83.63</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:703278970#searchVariation=MLB27687422&amp;position=1&amp;search_layout=grid&amp;type=product&amp;tracking_id=8a10a050-2256-4904-9337-88bbb6f47c2a</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>FONTE 200A STORM</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>845.87</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3693337927-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8a10a050-2256-4904-9337-88bbb6f47c2a</t>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3399539805-fonte-carregador-de-bateria-jfa-120a-lite-storm-slim-bivolt-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc036f5ae-b73f-41c9-8278-9c086dc95178</t>
         </is>
       </c>
     </row>

--- a/dados/rede autopartsonline.xlsx
+++ b/dados/rede autopartsonline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -493,16 +493,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Controle Remoto Jfa Redline Wr Longo Alcance De Longa Distan</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CONTROLE WR</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>110</v>
+        <v>456.36</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -511,24 +511,24 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:703278970#searchVariation=MLB28557249&amp;position=5&amp;search_layout=grid&amp;type=product&amp;tracking_id=c759e1e1-0b7b-4287-90de-cc3a52384002</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:703278970#wid=MLB3776768114&amp;sid=search&amp;searchVariation=MLB21562641&amp;position=23&amp;search_layout=grid&amp;type=product&amp;tracking_id=3e94e5ae-ae82-4878-8cb3-ba5f2824ed61</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -547,11 +547,11 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>657.1900000000001</v>
+        <v>643.0599999999999</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -566,14 +566,14 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:703278970#searchVariation=MLB24834408&amp;position=41&amp;search_layout=grid&amp;type=product&amp;tracking_id=c759e1e1-0b7b-4287-90de-cc3a52384002</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:703278970#wid=MLB3443425223&amp;sid=search&amp;searchVariation=MLB24834408&amp;position=20&amp;search_layout=grid&amp;type=product&amp;tracking_id=3e94e5ae-ae82-4878-8cb3-ba5f2824ed61</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -592,16 +592,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>83.63</v>
+        <v>76.93000000000001</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -611,14 +611,14 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:703278970#searchVariation=MLB27685629&amp;position=24&amp;search_layout=grid&amp;type=product&amp;tracking_id=c759e1e1-0b7b-4287-90de-cc3a52384002</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:703278970#wid=MLB3750711323&amp;sid=search&amp;searchVariation=MLB27685629&amp;position=5&amp;search_layout=grid&amp;type=product&amp;tracking_id=3e94e5ae-ae82-4878-8cb3-ba5f2824ed61</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -628,42 +628,42 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>Controle Remoto Jfa Redline Wr Longo Alcance De Longa Distan</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>CONTROLE WR</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>845.87</v>
+        <v>116.66</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:703278970#searchVariation=MLB21348561&amp;position=14&amp;search_layout=grid&amp;type=product&amp;tracking_id=c759e1e1-0b7b-4287-90de-cc3a52384002</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:703278970#wid=MLB3759086703&amp;sid=search&amp;searchVariation=MLB28557249&amp;position=33&amp;search_layout=grid&amp;type=product&amp;tracking_id=3e94e5ae-ae82-4878-8cb3-ba5f2824ed61</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -673,20 +673,20 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>499.46</v>
+        <v>871.25</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -696,19 +696,19 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:703278970#searchVariation=MLB22144397&amp;position=20&amp;search_layout=grid&amp;type=product&amp;tracking_id=c759e1e1-0b7b-4287-90de-cc3a52384002</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:703278970#wid=MLB4688303504&amp;sid=search&amp;searchVariation=MLB21348561&amp;position=17&amp;search_layout=grid&amp;type=product&amp;tracking_id=c5262e1c-4a0a-414b-9583-f702c477f59e</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -718,42 +718,42 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>634.4</v>
+        <v>738.22</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:703278970#searchVariation=MLB21392652&amp;position=26&amp;search_layout=grid&amp;type=product&amp;tracking_id=c759e1e1-0b7b-4287-90de-cc3a52384002</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:703278970#wid=MLB3381565233&amp;sid=search&amp;searchVariation=MLB24154371&amp;position=39&amp;search_layout=grid&amp;type=product&amp;tracking_id=c5262e1c-4a0a-414b-9583-f702c477f59e</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -763,20 +763,20 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>422.93</v>
+        <v>653.4299999999999</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -791,14 +791,14 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:703278970#searchVariation=MLB21562641&amp;position=15&amp;search_layout=grid&amp;type=product&amp;tracking_id=c759e1e1-0b7b-4287-90de-cc3a52384002</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:703278970#wid=MLB4808648866&amp;sid=search&amp;searchVariation=MLB21392652&amp;position=22&amp;search_layout=grid&amp;type=product&amp;tracking_id=c5262e1c-4a0a-414b-9583-f702c477f59e</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -808,20 +808,20 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>738.22</v>
+        <v>514.45</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -831,19 +831,19 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:703278970#searchVariation=MLB24154371&amp;position=24&amp;search_layout=grid&amp;type=product&amp;tracking_id=e961d2a2-bb67-4a95-9611-48bfa22ce7e7</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:703278970#wid=MLB3366790817&amp;sid=search&amp;searchVariation=MLB22144397&amp;position=44&amp;search_layout=grid&amp;type=product&amp;tracking_id=c5262e1c-4a0a-414b-9583-f702c477f59e</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -862,11 +862,11 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>493.42</v>
+        <v>508.22</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -881,7 +881,899 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:703278970#searchVariation=MLB21455208&amp;position=36&amp;search_layout=grid&amp;type=product&amp;tracking_id=e961d2a2-bb67-4a95-9611-48bfa22ce7e7</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:703278970#wid=MLB3368830387&amp;sid=search&amp;searchVariation=MLB21455208&amp;position=22&amp;search_layout=grid&amp;type=product&amp;tracking_id=d7f355a0-f612-4fa9-b122-8aea17da7d37</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>rede autopartsonline</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Modulo Amplificador Jfa Ap 380x4 Rms 4 Canais Potência Cor Preto</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>297</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/modulo-amplificador-jfa-ap-380x4-rms-4-canais-potncia-cor-preto/p/MLB36972018?pdp_filters=seller_id:703278970#wid=MLB4699351942&amp;sid=search&amp;searchVariation=MLB36972018&amp;position=50&amp;search_layout=grid&amp;type=product&amp;tracking_id=d7f355a0-f612-4fa9-b122-8aea17da7d37</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>rede autopartsonline</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Fonte Carregador De Bateria Jfa 70a Lite Storm Slim Bivolt</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>447.46</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3399448181-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9feb758c-9dc0-4132-9491-d5d33e7670e7</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>rede autopartsonline</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotiva 200a Jfa Storm Bivolt Automático</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>871.25</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2608382859-fonte-carregador-automotiva-200a-jfa-storm-bivolt-automatico-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9feb758c-9dc0-4132-9491-d5d33e7670e7</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>rede autopartsonline</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 70a Storm Lite 12v Bivolt</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>420.99</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3399486661-fonte-carregador-automotivo-jfa-70a-storm-lite-12v-bivolt-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9feb758c-9dc0-4132-9491-d5d33e7670e7</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>rede autopartsonline</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 70a Storm Bivolt Sci Cca Nova</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>539.34</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3368838621-fonte-carregador-jfa-70a-storm-bivolt-sci-cca-nova-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df8641893-7bed-4fe8-81fe-a5d91e43133a</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>rede autopartsonline</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 70a Storm Lite 12v Bivolt</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>447.46</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3399448001-fonte-carregador-automotivo-jfa-70a-storm-lite-12v-bivolt-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dafc187f1-5789-45af-888f-115f8779a111</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>rede autopartsonline</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 120a Bivolt Storm Com Medidor Cca Fonte</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>694.92</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3368873273-fonte-carregador-jfa-120a-bivolt-storm-com-medidor-cca-fonte-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dafc187f1-5789-45af-888f-115f8779a111</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>rede autopartsonline</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotiva 120a Jfa Storm Bivolt Automático</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>653.4299999999999</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3368910857-fonte-carregador-automotiva-120a-jfa-storm-bivolt-automatico-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D19d9c3ec-0e9e-4f92-a7f5-c4b0805dcdc2</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>rede autopartsonline</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm 70a Bivolt Carregador Fonte</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>508.22</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3368849175-fonte-automotiva-jfa-storm-70a-bivolt-carregador-fonte-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8fcfda1d-3001-413d-a41a-64bdeaa2bb9d</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>rede autopartsonline</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 90a Para Caixa Som Bob Bivolt Slim</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>435.62</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3776743806-fonte-carregador-jfa-90a-para-caixa-som-bob-bivolt-slim-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbc759971-7699-4d91-b73b-90341dc40719</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>rede autopartsonline</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotiva 70a Jfa Storm Bivolt Automático</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>539.34</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3775336280-fonte-carregador-automotiva-70a-jfa-storm-bivolt-automatico-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5bcebc6e-a168-4687-b495-44bdacae9ee1</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>rede autopartsonline</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 90a Bob Storm Slim Bivolt 110v 220v</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>456.36</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3776704626-fonte-carregador-jfa-90a-bob-storm-slim-bivolt-110v-220v-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5bcebc6e-a168-4687-b495-44bdacae9ee1</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>rede autopartsonline</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Fonte 70a Caixa Trio Jfa 70 Ah Storm Lite 110/220v Bivolt</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>443.16</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3870258558-fonte-70a-caixa-trio-jfa-70-ah-storm-lite-110220v-bivolt-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2187c50e-ad1c-4da6-9293-34322b0c7dbb</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>rede autopartsonline</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 120a Bob Storm Bivolt Novo</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>555.9299999999999</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3821403076-fonte-carregador-automotivo-jfa-120a-bob-storm-bivolt-novo-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2187c50e-ad1c-4da6-9293-34322b0c7dbb</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>rede autopartsonline</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite 12v Bivolt</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>738.22</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3400352285-fonte-carregador-automotivo-jfa-200a-storm-lite-12v-bivolt-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2187c50e-ad1c-4da6-9293-34322b0c7dbb</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>rede autopartsonline</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Fonte 70a Caixa Trio Jfa 70 Ah Storm Lite 110/220v Bivolt</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>420.99</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3399535315-fonte-70a-caixa-trio-jfa-70-ah-storm-lite-110220v-bivolt-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbe8696a2-ff5b-484e-934a-13b23131a92f</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>rede autopartsonline</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Módulo Amplificador Jfa 380x4 Crossover Integrado 4 Canais</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>330.3</v>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3683446891-modulo-amplificador-jfa-380x4-crossover-integrado-4-canais-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbe8696a2-ff5b-484e-934a-13b23131a92f</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>rede autopartsonline</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Storm Lite 120a Bivolt Automático Slim</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>552.35</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3399540367-fonte-carregador-jfa-storm-lite-120a-bivolt-automatico-slim-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9170eade-7cc4-44b4-983c-5f054f54f4cf</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>rede autopartsonline</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>ACQUA</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>76.93000000000001</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:703278970#wid=MLB3750711761&amp;sid=search&amp;searchVariation=MLB27687422&amp;position=1&amp;search_layout=grid&amp;type=product&amp;tracking_id=9170eade-7cc4-44b4-983c-5f054f54f4cf</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>rede autopartsonline</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Fonte Carregador De Bateria Jfa 120a Lite Storm Slim Bivolt</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>590.5599999999999</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3399539805-fonte-carregador-de-bateria-jfa-120a-lite-storm-slim-bivolt-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9170eade-7cc4-44b4-983c-5f054f54f4cf</t>
         </is>
       </c>
     </row>
